--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-OB-oeverbescherming.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-OB-oeverbescherming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE7EE63D-6863-488C-9D81-3882516E7EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83DEB254-5440-46BD-90AF-00AE8452F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{11DDE102-F783-4FC6-99B9-2643A92804A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{887950AC-5F19-4483-AC4C-03ED9A6220AB}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-OB-oeverbe" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="173">
   <si>
     <t>objectURI</t>
   </si>
@@ -517,6 +517,9 @@
     <t>STREKDAM</t>
   </si>
   <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/58823a8a-bd5c-4869-9b2b-fca3139bf372</t>
   </si>
   <si>
@@ -533,6 +536,12 @@
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0a07466a-3905-4407-8410-eff70585d089</t>
+  </si>
+  <si>
+    <t>OB-WATERLIJN-SO</t>
   </si>
 </sst>
 </file>
@@ -1392,16 +1401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372ED3C3-9F15-4451-86B2-9DEE572DFC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B2796-CF21-48D3-B7BA-F0AD296DD568}">
   <dimension ref="A1:BS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="AE19" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -6076,6 +6085,45 @@
       <c r="I25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="U25" t="s">
+        <v>164</v>
+      </c>
+      <c r="V25" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" t="s">
+        <v>83</v>
+      </c>
       <c r="X25" t="s">
         <v>84</v>
       </c>
@@ -6587,7 +6635,7 @@
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -6599,7 +6647,7 @@
         <v>1582</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
         <v>76</v>
@@ -6614,25 +6662,25 @@
         <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28">
         <v>150</v>
       </c>
       <c r="N28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O28">
         <v>152</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>150</v>
       </c>
       <c r="R28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S28">
         <v>150</v>
@@ -6650,31 +6698,31 @@
         <v>83</v>
       </c>
       <c r="X28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA28">
         <v>150</v>
       </c>
       <c r="AB28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC28">
         <v>152</v>
       </c>
       <c r="AD28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE28">
         <v>150</v>
       </c>
       <c r="AF28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG28">
         <v>150</v>
@@ -6690,6 +6738,48 @@
       </c>
       <c r="AK28" t="s">
         <v>83</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO28">
+        <v>150</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ28">
+        <v>152</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS28">
+        <v>150</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU28">
+        <v>150</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW28">
+        <v>253</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.35">
@@ -7266,7 +7356,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS31" xr:uid="{372ED3C3-9F15-4451-86B2-9DEE572DFC81}">
+  <autoFilter ref="A1:BS31" xr:uid="{1A8B2796-CF21-48D3-B7BA-F0AD296DD568}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS31">
       <sortCondition ref="E1:E31"/>
     </sortState>
